--- a/helper/Process_Category.xlsx
+++ b/helper/Process_Category.xlsx
@@ -103,7 +103,7 @@
     <t>Others</t>
   </si>
   <si>
-    <t>BOH-Infrastructure_Development_NH_NS_NSC_ASC_NIOHub</t>
+    <t>BOH-Infrastructure_Development_NH_NS_NSC_ASC_NIOHub_</t>
   </si>
   <si>
     <t>BOH-NIO_House_Operation</t>
@@ -226,7 +226,7 @@
     <t>Get_vehicles_from_CN_or_EU_hub_to_RDC,Deal_with_any_subscription_cars_delivery-related_issues_with_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,Daily_NH_Store_Closing_SOP</t>
   </si>
   <si>
-    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,  User_service_booking process ,AccidentRoadside_assistance_process,User_Complain_Mechanism,Pre-delivery_service_operation_process,Parts_and_accessories_forecast_and_stock_preparation_process,Inspection_Maintenance_Process,FOTA_and_remote_service_operation_process,Service_campaign_operation_management_process</t>
+    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,  User_service_booking process ,_AccidentRoadside_assistance_process,User_Complain_Mechanism,Pre-delivery_service_operation_process,_Parts_and_accessories_forecast_and_stock_preparation_process_,Inspection_Maintenance_Process,_FOTA_and_remote_service_operation_process,_Service_campaign_operation_management_process_</t>
   </si>
   <si>
     <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
@@ -235,25 +235,25 @@
     <t>User_Purchase_car_after_delivery,Daily_NH_Store_Closing_SOP</t>
   </si>
   <si>
-    <t xml:space="preserve">  User_service_booking process ,AccidentRoadside_assistance_process,User_Complain_Mechanism,Pre-delivery_service_operation_process,Parts_and_accessories_forecast_and_stock_preparation_process,Inspection_Maintenance_Process,FOTA_and_remote_service_operation_process,Service_campaign_operation_management_process</t>
+    <t xml:space="preserve">  User_service_booking process ,_AccidentRoadside_assistance_process,User_Complain_Mechanism,Pre-delivery_service_operation_process,_Parts_and_accessories_forecast_and_stock_preparation_process_,Inspection_Maintenance_Process,_FOTA_and_remote_service_operation_process,_Service_campaign_operation_management_process_</t>
   </si>
   <si>
     <t>Daily_NH_Store_Closing_SOP</t>
   </si>
   <si>
-    <t>EU_network_planning_2_0,EU_POS_Infrastructure_design_management_and_approval_process,Design_vendor_pool_selection_and_management_process,EU_NIO_House_Space_Hub_design_guidline,  Construction management process (including managing vendors),Construction_vendor_pool_selection_and_management_process,NH_NS_Nhub_opening_preparation_list,NH_NS_Nhub_operation_management,Budget approval and management process (including change mana),Location_approval_process,DOA_and_paymanet_process,Budget_making_and_rolling_process,EU_POS_Infrastructure_projects_tracking_timeline_and_status_management_and_change_management_process,EU_POS_Infrastructure_types_and_location_preference</t>
+    <t>__EU_network_planning_2_0,_EU_POS_Infrastructure_design_management_and_approval_process,_Design_vendor_pool_selection_and_management_process,_EU_NIO_House_Space_Hub_design_guidline,  Construction management process (including managing vendors),  Construction_vendor_pool_selection_and_management_process,  NH_NS_Nhub_opening_preparation_list,  NH_NS_Nhub_operation_management_,Budget approval and management process (including change mana),  Location_approval_process,  DOA_and_paymanet_process,  Budget_making_and_rolling_process,  EU_POS_Infrastructure_projects_tracking_timeline_and_status_management_and_change_management_process,EU_POS_Infrastructure_types_and_location_preference_</t>
   </si>
   <si>
     <t>Mysterious_AmbassadorOpen_Check_process_and_standard_</t>
   </si>
   <si>
-    <t>Leads_classification_and_follow_up_process_management,Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Test_drive_site_selection_layout_and_process_design_,Group_Test_Drive_Process_-_Standardize_the_group_test_drive_process,Fellow_Performance_Evaluation_Process,Order_and_stock_planning_and_management_Process,Demo_car_and_display_car_management,Appointment-to-delivery_process,FIFO_steering_and_fleet_management</t>
-  </si>
-  <si>
-    <t>Courtesy_car_management_process</t>
-  </si>
-  <si>
-    <t>Small_loop-closing,Big_loop-closing,Establish_EU_user_complaint_escalation_and_response_mechanism_</t>
+    <t xml:space="preserve">  Leads_classification_and_follow_up_process_management,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Test_drive_site_selection_layout_and_process_design_,_Group_Test_Drive_Process_-_Standardize_the_group_test_drive_process,Fellow_Performance_Evaluation_Process,  Order_and_stock_planning_and_management_Process,Demo_car_and_display_car_management,_Appointment-to-delivery_process,_FIFO_steering_and_fleet_management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Courtesy_car_management_process_</t>
+  </si>
+  <si>
+    <t>Small_loop-closing,_Big_loop-closing,Establish_EU_user_complaint_escalation_and_response_mechanism_</t>
   </si>
 </sst>
 </file>

--- a/helper/Process_Category.xlsx
+++ b/helper/Process_Category.xlsx
@@ -223,7 +223,7 @@
     <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
   </si>
   <si>
-    <t>Get_vehicles_from_CN_or_EU_hub_to_RDC,Deal_with_any_subscription_cars_delivery-related_issues_with_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,Daily_NH_Store_Closing_SOP</t>
+    <t>Get_vehicles_from_CN_or_EU_hub_to_RDC,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,Daily_NH_Store_Closing_SOP</t>
   </si>
   <si>
     <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,  User_service_booking process ,_AccidentRoadside_assistance_process,User_Complain_Mechanism,Pre-delivery_service_operation_process,_Parts_and_accessories_forecast_and_stock_preparation_process_,Inspection_Maintenance_Process,_FOTA_and_remote_service_operation_process,_Service_campaign_operation_management_process_</t>

--- a/helper/Process_Category.xlsx
+++ b/helper/Process_Category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>Process_Category</t>
   </si>
@@ -28,9 +28,6 @@
     <t>For User Journey</t>
   </si>
   <si>
-    <t>Has Employee Processes</t>
-  </si>
-  <si>
     <t>FOH-Subscription-Create-Leads</t>
   </si>
   <si>
@@ -215,45 +212,6 @@
   </si>
   <si>
     <t>Fin-Leasing-Create-Leads</t>
-  </si>
-  <si>
-    <t>Agent_Performance_Review</t>
-  </si>
-  <si>
-    <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
-  </si>
-  <si>
-    <t>Get_vehicles_from_CN_or_EU_hub_to_RDC,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,Daily_NH_Store_Closing_SOP</t>
-  </si>
-  <si>
-    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,  User_service_booking process ,_AccidentRoadside_assistance_process,User_Complain_Mechanism,Pre-delivery_service_operation_process,_Parts_and_accessories_forecast_and_stock_preparation_process_,Inspection_Maintenance_Process,_FOTA_and_remote_service_operation_process,_Service_campaign_operation_management_process_</t>
-  </si>
-  <si>
-    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
-  </si>
-  <si>
-    <t>User_Purchase_car_after_delivery,Daily_NH_Store_Closing_SOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  User_service_booking process ,_AccidentRoadside_assistance_process,User_Complain_Mechanism,Pre-delivery_service_operation_process,_Parts_and_accessories_forecast_and_stock_preparation_process_,Inspection_Maintenance_Process,_FOTA_and_remote_service_operation_process,_Service_campaign_operation_management_process_</t>
-  </si>
-  <si>
-    <t>Daily_NH_Store_Closing_SOP</t>
-  </si>
-  <si>
-    <t>__EU_network_planning_2_0,_EU_POS_Infrastructure_design_management_and_approval_process,_Design_vendor_pool_selection_and_management_process,_EU_NIO_House_Space_Hub_design_guidline,  Construction management process (including managing vendors),  Construction_vendor_pool_selection_and_management_process,  NH_NS_Nhub_opening_preparation_list,  NH_NS_Nhub_operation_management_,Budget approval and management process (including change mana),  Location_approval_process,  DOA_and_paymanet_process,  Budget_making_and_rolling_process,  EU_POS_Infrastructure_projects_tracking_timeline_and_status_management_and_change_management_process,EU_POS_Infrastructure_types_and_location_preference_</t>
-  </si>
-  <si>
-    <t>Mysterious_AmbassadorOpen_Check_process_and_standard_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Leads_classification_and_follow_up_process_management,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Test_drive_site_selection_layout_and_process_design_,_Group_Test_Drive_Process_-_Standardize_the_group_test_drive_process,Fellow_Performance_Evaluation_Process,  Order_and_stock_planning_and_management_Process,Demo_car_and_display_car_management,_Appointment-to-delivery_process,_FIFO_steering_and_fleet_management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Courtesy_car_management_process_</t>
-  </si>
-  <si>
-    <t>Small_loop-closing,_Big_loop-closing,Establish_EU_user_complaint_escalation_and_response_mechanism_</t>
   </si>
 </sst>
 </file>
@@ -611,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,618 +588,558 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Process_Category.xlsx
+++ b/helper/Process_Category.xlsx
@@ -100,7 +100,7 @@
     <t>Others</t>
   </si>
   <si>
-    <t>BOH-Infrastructure_Development_NH_NS_NSC_ASC_NIOHub_</t>
+    <t>BOH-Infrastructure_Development_(NH_NS_NSC_ASC_NIOHub_)</t>
   </si>
   <si>
     <t>BOH-NIO_House_Operation</t>
@@ -121,10 +121,10 @@
     <t>BOH-User_Relation</t>
   </si>
   <si>
-    <t>BOH-Governance_Finance_Legal_HR</t>
-  </si>
-  <si>
-    <t>BOH-Operation_Support_Market_Entry_PMO_Strategy_Training</t>
+    <t>BOH-Governance_(Finance_Legal_HR)</t>
+  </si>
+  <si>
+    <t>BOH-Operation_Support_(Market_Entry_PMO_Strategy_Training)</t>
   </si>
   <si>
     <t>LINK</t>

--- a/helper/Process_Category.xlsx
+++ b/helper/Process_Category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
   <si>
     <t>Process_Category</t>
   </si>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,16 +883,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -900,7 +900,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -909,7 +909,7 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -917,7 +917,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -926,7 +926,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -934,7 +934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -943,7 +943,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -951,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -960,7 +960,7 @@
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -968,7 +968,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -977,7 +977,7 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -985,16 +985,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1002,16 +1002,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1019,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -1033,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -1047,7 +1044,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -1061,7 +1058,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1075,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -1089,13 +1086,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1103,10 +1097,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1114,31 +1111,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
       <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
         <v>37</v>
       </c>
     </row>

--- a/helper/Process_Category.xlsx
+++ b/helper/Process_Category.xlsx
@@ -127,7 +127,7 @@
     <t>BOH-Operation_Support_(Market_Entry_PMO_Strategy_Training)</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>Subscription</t>

--- a/helper/Process_Category.xlsx
+++ b/helper/Process_Category.xlsx
@@ -100,7 +100,7 @@
     <t>Others</t>
   </si>
   <si>
-    <t>BOH-Infrastructure_Development_(NH_NS_NSC_ASC_NIOHub_)</t>
+    <t>BOH-Infrastructure_Development_NH_NS_NSC_ASC_NIOHub_</t>
   </si>
   <si>
     <t>BOH-NIO_House_Operation</t>
@@ -121,10 +121,10 @@
     <t>BOH-User_Relation</t>
   </si>
   <si>
-    <t>BOH-Governance_(Finance_Legal_HR)</t>
-  </si>
-  <si>
-    <t>BOH-Operation_Support_(Market_Entry_PMO_Strategy_Training)</t>
+    <t>BOH-Governance_Finance_Legal_HR</t>
+  </si>
+  <si>
+    <t>BOH-Operation_Support_Market_Entry_PMO_Strategy_Training</t>
   </si>
   <si>
     <t>Click Me</t>

--- a/helper/Process_Category.xlsx
+++ b/helper/Process_Category.xlsx
@@ -112,7 +112,7 @@
     <t>BOH-Sales_Operation</t>
   </si>
   <si>
-    <t>BOH-User_Development</t>
+    <t>BOH-User_Development_&amp;_Corporate_Communication</t>
   </si>
   <si>
     <t>BOH-Service_Operation</t>
